--- a/Lease_Contract_Extraction_Phase_I_2.0/Data/Docsaurus_Output.xlsx
+++ b/Lease_Contract_Extraction_Phase_I_2.0/Data/Docsaurus_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lease_Data_101\Lease_Contract_Data\Lease_Contract_Extraction_Phase_I_2.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD2224-BECC-428A-B794-F6CD917C4DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE702A0-7E84-4DE7-BEF5-743014CA8844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="45" windowWidth="15330" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -769,19 +769,19 @@
     <t>The specific residential unit within the estate that is identified as "Your Property" is the apartment numbered 171 within the building.</t>
   </si>
   <si>
-    <t>The description of the parking space is that it is marked on PLAN 1 with P followed by the plot number of YOUR PROPERTY.</t>
-  </si>
-  <si>
-    <t>The clause that reserves the rights in favor of the Landlord and others is "LANDLORD'S RESERVED RIGHTS" under Chapter 4.</t>
-  </si>
-  <si>
-    <t>Chapter 5: Money You Must Pay involves money covenants for the tenant.</t>
-  </si>
-  <si>
     <t>The chapter that includes the maintenance and alteration of the property is Chapter 9: Maintaining and Altering Your Property.</t>
   </si>
   <si>
     <t>The chapter that includes disposals of your property is Chapter 11.</t>
+  </si>
+  <si>
+    <t>The clause that reserves the rights in favor of the Landlord and others is "LANDLORD'S RESERVED RIGHTS" in Chapter 4.</t>
+  </si>
+  <si>
+    <t>Chapter 5: MONEY YOU MUST PAY includes money covenants for the tenant.</t>
+  </si>
+  <si>
+    <t>The description of the parking space is that it is marked on PLAN 1 with P followed by the plot number of YOUR PROPERTY. It can be used for parking one private motor vehicle, as long as it is not a commercial vehicle (except for a light van that does not exceed 2,000 kg kerb weight). Additionally, if there is no parking space marked on PLAN 1, YOUR PROPERTY does not have the right to park in a parking space on the ESTATE.</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>230</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
